--- a/resultadosJAVASCRIPT_QUICK.xlsx
+++ b/resultadosJAVASCRIPT_QUICK.xlsx
@@ -418,7 +418,7 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>25</v>
+        <v>63</v>
       </c>
       <c r="C2">
         <v>-1286.4296875</v>
@@ -429,7 +429,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C3">
         <v>-1286.359375</v>
@@ -440,7 +440,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C4">
         <v>-1286.2734375</v>
@@ -451,7 +451,7 @@
         <v>4</v>
       </c>
       <c r="B5">
-        <v>26</v>
+        <v>64</v>
       </c>
       <c r="C5">
         <v>-1286.234375</v>
@@ -462,7 +462,7 @@
         <v>5</v>
       </c>
       <c r="B6">
-        <v>27</v>
+        <v>65</v>
       </c>
       <c r="C6">
         <v>-1286.0546875</v>
@@ -473,7 +473,7 @@
         <v>6</v>
       </c>
       <c r="B7">
-        <v>28</v>
+        <v>66</v>
       </c>
       <c r="C7">
         <v>-1286.046875</v>
@@ -484,7 +484,7 @@
         <v>7</v>
       </c>
       <c r="B8">
-        <v>29</v>
+        <v>68</v>
       </c>
       <c r="C8">
         <v>-1285.953125</v>
@@ -495,7 +495,7 @@
         <v>8</v>
       </c>
       <c r="B9">
-        <v>30</v>
+        <v>69</v>
       </c>
       <c r="C9">
         <v>-1285.859375</v>
@@ -506,7 +506,7 @@
         <v>9</v>
       </c>
       <c r="B10">
-        <v>31</v>
+        <v>69</v>
       </c>
       <c r="C10">
         <v>-1285.8046875</v>
@@ -517,10 +517,10 @@
         <v>10</v>
       </c>
       <c r="B11">
-        <v>43</v>
+        <v>70</v>
       </c>
       <c r="C11">
-        <v>3299.125</v>
+        <v>3300.171875</v>
       </c>
     </row>
     <row r="13">
@@ -528,10 +528,10 @@
         <v>Média</v>
       </c>
       <c r="B13" t="str">
-        <v>29.10</v>
+        <v>66.20</v>
       </c>
       <c r="C13" t="str">
-        <v>-827.59</v>
+        <v>-827.48</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>Mediana</v>
       </c>
       <c r="B14" t="str">
-        <v>27.50</v>
+        <v>65.50</v>
       </c>
       <c r="C14" t="str">
         <v>-1286.05</v>
